--- a/sstool-poi-expand/src/main/resources/xlsx/pageforeach_merge_temp.xlsx
+++ b/sstool-poi-expand/src/main/resources/xlsx/pageforeach_merge_temp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\sstool\sstool-poi-expand\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F7E350-877C-4985-B00F-BE510298EC91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75CB3A5-A926-4391-A0D4-EA578BBF3706}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -105,15 +105,31 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>#if ${model}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>普通合并单元格</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>iftag false data3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag false data4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>if合并单元格</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>#if ${model}</t>
+    <t>forbegin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>forend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +208,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,14 +260,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -242,13 +284,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,11 +344,35 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -633,118 +725,144 @@
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="11" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="13" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="14" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="19" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sstool-poi-expand/src/main/resources/xlsx/pageforeach_merge_temp.xlsx
+++ b/sstool-poi-expand/src/main/resources/xlsx/pageforeach_merge_temp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\sstool\sstool-poi-expand\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F7E350-877C-4985-B00F-BE510298EC91}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB63D93C-4283-4342-B15A-1CFDE31DD4C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>${detail.qty}</t>
-  </si>
-  <si>
-    <t>${detail.user}</t>
   </si>
   <si>
     <t>${detail.name}</t>
@@ -105,15 +102,35 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>#if ${model}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>普通合并单元格</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>iftag false data3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag false data4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>if合并单元格</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>#if ${model}</t>
+    <t>forbegin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>forend</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${detail.user}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +209,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,12 +258,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -276,11 +319,41 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -633,118 +706,147 @@
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="14" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C19:C20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
